--- a/Books.xlsx
+++ b/Books.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="testcases for MyAccount section" sheetId="2" r:id="rId1"/>
@@ -20,25 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="121">
-  <si>
-    <t>Project_Name</t>
-  </si>
-  <si>
-    <t>Module_Name</t>
-  </si>
-  <si>
-    <t>Created_BY</t>
-  </si>
-  <si>
-    <t>Created_date</t>
-  </si>
-  <si>
-    <t>Review_By</t>
-  </si>
-  <si>
-    <t>Review_Date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="143">
   <si>
     <t>Steps</t>
   </si>
@@ -46,106 +28,13 @@
     <t>Data</t>
   </si>
   <si>
-    <t>TC_01</t>
-  </si>
-  <si>
-    <t>TestCase_ID</t>
-  </si>
-  <si>
-    <t>Test_Description</t>
-  </si>
-  <si>
     <t>Test_Cases</t>
   </si>
   <si>
-    <t>Actual Results</t>
-  </si>
-  <si>
     <t>Expected Results</t>
   </si>
   <si>
-    <t>Pass/Fail</t>
-  </si>
-  <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>Bug_Number</t>
-  </si>
-  <si>
-    <t>Search functionality
-of amazon website</t>
-  </si>
-  <si>
-    <t>1.enter the valid keyword</t>
-  </si>
-  <si>
-    <t>1.open the website
-2.in the search bar type vaid keyword
-3.click on search ion</t>
-  </si>
-  <si>
-    <t>chairs</t>
-  </si>
-  <si>
-    <t>list of chairs with description and image should appear</t>
-  </si>
-  <si>
-    <t>2.Enter nothing and click on search icon</t>
-  </si>
-  <si>
-    <t>3.give only one character and click on search icon</t>
-  </si>
-  <si>
-    <t>page should remain same without refreshing</t>
-  </si>
-  <si>
-    <t>related items should display starting with the enter character</t>
-  </si>
-  <si>
-    <t>4.if we typed same word two items</t>
-  </si>
-  <si>
-    <t>there should be no change in the result set</t>
-  </si>
-  <si>
-    <t>5.giving the random character</t>
-  </si>
-  <si>
-    <t>message page should display</t>
-  </si>
-  <si>
-    <t>6.characters should not be more than 650</t>
-  </si>
-  <si>
-    <t>7.copy and paste should work in serch bar</t>
-  </si>
-  <si>
-    <t>8.combinations of test and number should work</t>
-  </si>
-  <si>
-    <t>9.according to language the product should show the descriptions</t>
-  </si>
-  <si>
-    <t>10. able to submit the text from both mouse and keyboard</t>
-  </si>
-  <si>
-    <t>11. refresh the page still the typed contained should be there</t>
-  </si>
-  <si>
-    <t>12.cursor should come at the end of the each character</t>
-  </si>
-  <si>
-    <t>13.length of the search bar and icon should be as per requirement</t>
-  </si>
-  <si>
-    <t>14.placeholder need to be present</t>
-  </si>
-  <si>
-    <t>15.autosuggestion is present</t>
-  </si>
-  <si>
-    <t>16.able to see the previous search in auto suggest</t>
   </si>
   <si>
     <t>Test_Case_ID</t>
@@ -454,22 +343,228 @@
   <si>
     <t>User Should be still in Login Page</t>
   </si>
+  <si>
+    <t>TS__03</t>
+  </si>
+  <si>
+    <t>Verifying the 'Search' Functionality of
+openCart Application</t>
+  </si>
+  <si>
+    <t>TC_Search_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.Verify with the Invalid Keywords </t>
+  </si>
+  <si>
+    <t>3. Verify with special keywords</t>
+  </si>
+  <si>
+    <t>4.Verify that search is case sensitive</t>
+  </si>
+  <si>
+    <t>1.Verify that the search returns results for a valid search term</t>
+  </si>
+  <si>
+    <t>1.Open https://demo.opencart.com/ in browser.
+2.The user should be logged in or Search functionality should be 
+available for both Logged users and guest users</t>
+  </si>
+  <si>
+    <t>1.Locate the Search Bar
+2.Enter the Search Term
+3.Click on search icon or press Enter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The search results page should load successfully.
+2. The product "Samsung Galaxy Tab 10.1" should be present in the search results.
+3. No irrelevant products should be displayed.
+</t>
+  </si>
+  <si>
+    <t>Search Term :'Samsung Galaxy Tab 10.1'</t>
+  </si>
+  <si>
+    <t>Error Message should display:"There is no product that 
+matches the search criteria."</t>
+  </si>
+  <si>
+    <t>Working As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. User remains on the search results page.
+2. Search term "Samsung Galaxy Tab 10.1" remains in the search bar.
+3. Search results are visible and interactable.
+4. Any applied filters or pagination remain persistent.</t>
+  </si>
+  <si>
+    <t>User remains on the
+ search results page with Error Message</t>
+  </si>
+  <si>
+    <t>Search Term:"@#$%^&amp;*("</t>
+  </si>
+  <si>
+    <t>Search Term:iPoD NANo</t>
+  </si>
+  <si>
+    <t>1. The search results page should load successfully.
+2. The product "Samsung Galaxy Tab 10.1" should be present in the search results.
+3. No irrelevant products should be displayed.</t>
+  </si>
+  <si>
+    <t>1. The search results page should load successfully.
+2. The product "iPoD NANo" should be present in the search results.
+3. No irrelevant products should be displayed.</t>
+  </si>
+  <si>
+    <t>Search Term:"Sipod"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.Verify that the search with empty 
+ input behaves as expected. </t>
+  </si>
+  <si>
+    <t>1.Locate the Search Bar
+2.Click on search icon or press Enter</t>
+  </si>
+  <si>
+    <t>Search Term :" "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Still should be present in the same page </t>
+  </si>
+  <si>
+    <t>Moving into the error 
+meaage page</t>
+  </si>
+  <si>
+    <t>Users should remain on the same search page</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>TC_Search_002</t>
+  </si>
+  <si>
+    <t>TC_Search_003</t>
+  </si>
+  <si>
+    <t>TC_Search_004</t>
+  </si>
+  <si>
+    <t>TC_Search_005</t>
+  </si>
+  <si>
+    <t>TC_Search_006</t>
+  </si>
+  <si>
+    <t>TC_Search_007</t>
+  </si>
+  <si>
+    <t>TC_Search_008</t>
+  </si>
+  <si>
+    <t>TC_Search_009</t>
+  </si>
+  <si>
+    <t>1.Locate the Search Bar
+2.Enter the Search Term</t>
+  </si>
+  <si>
+    <t>No Data</t>
+  </si>
+  <si>
+    <t>Previous search term should display like: ipod or 
+Samsung Galaxy Tab 10.1</t>
+  </si>
+  <si>
+    <t>Working as Expected</t>
+  </si>
+  <si>
+    <t>Users should remain 
+on the same search page</t>
+  </si>
+  <si>
+    <t>7.Verify that PlaceOrder is present</t>
+  </si>
+  <si>
+    <t>Seach' Text should be present in the placeholder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Locate the Search Bar
+2.click on the Search Bar </t>
+  </si>
+  <si>
+    <t>1.Locate the Search Bar
+2.Enter the Search Bar
+3.Click on search icon or press Enter</t>
+  </si>
+  <si>
+    <t>1.Locate the Search Bar
+2.Enter the SearchTerm
+3.Click on search icon or press Enter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.Verify that previous search present in
+Auto Suggesstion </t>
+  </si>
+  <si>
+    <t>8.Verify that AutoSuggestion is present</t>
+  </si>
+  <si>
+    <t>Search Term:'ipod'</t>
+  </si>
+  <si>
+    <t>ipod nano</t>
+  </si>
+  <si>
+    <t>Not working as expected</t>
+  </si>
+  <si>
+    <t>9.Verify that Search Term and Search Result 
+should remain same after refresh the page</t>
+  </si>
+  <si>
+    <t>Search Term:'Samsung Galaxy Tab 10.1'</t>
+  </si>
+  <si>
+    <t>TC_Search_010</t>
+  </si>
+  <si>
+    <t>Verify the Search Term with the filters</t>
+  </si>
+  <si>
+    <t>1.Locate the Search Bar
+2.Enter the Search Term
+3.Apply Filter
+4.Click on Search icon or press enter</t>
+  </si>
+  <si>
+    <t>Search Term:'ipod'
+Filter:'Tablet'</t>
+  </si>
+  <si>
+    <t>1. The search results page should load successfully.
+2. The product "ipod" should be present in the search results.
+3. No irrelevant products should be displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. User remains on the search results page.
+2. Search term "ipod" remains in the search bar.
+3. Search results are visible and interactable.
+4. Any applied filters or pagination remain persistent.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -482,17 +577,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -509,14 +599,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -526,17 +614,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
@@ -636,7 +724,7 @@
     <tableColumn id="9" name="Results(Pass/Fail)"/>
     <tableColumn id="10" name="Comments"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -662,21 +750,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B8:K24" totalsRowShown="0" headerRowCellStyle="Bad">
-  <autoFilter ref="B8:K24"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="TestCase_ID"/>
-    <tableColumn id="2" name="Test_Description"/>
-    <tableColumn id="3" name="Test_Cases"/>
-    <tableColumn id="4" name="Steps" dataDxfId="0"/>
-    <tableColumn id="5" name="Data"/>
-    <tableColumn id="6" name="Actual Results"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B8:L24" totalsRowShown="0" headerRowCellStyle="Good">
+  <autoFilter ref="B8:L24"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Test_Scenario"/>
+    <tableColumn id="2" name="Test_Case_ID"/>
+    <tableColumn id="3" name="PreCondition"/>
+    <tableColumn id="4" name="Test_Cases" dataDxfId="0"/>
+    <tableColumn id="5" name="Steps"/>
+    <tableColumn id="6" name="Data"/>
     <tableColumn id="7" name="Expected Results"/>
-    <tableColumn id="8" name="Pass/Fail"/>
-    <tableColumn id="9" name="Comments"/>
-    <tableColumn id="10" name="Bug_Number"/>
+    <tableColumn id="8" name="Actaual Results"/>
+    <tableColumn id="9" name="PreCondition2"/>
+    <tableColumn id="10" name="Results(Pass/Fail)"/>
+    <tableColumn id="11" name="Comments"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -971,7 +1060,7 @@
   <dimension ref="A2:L12"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -991,197 +1080,197 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C2" s="3"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="J7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>44</v>
+      <c r="H8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>44</v>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="C10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>44</v>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="C11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>44</v>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="C12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>44</v>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1198,8 +1287,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A7:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1219,363 +1308,363 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="G8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="K8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="E9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="D13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="H16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="4" t="s">
+      <c r="H17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="G18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="I18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="K18" s="4"/>
+      <c r="K18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1588,215 +1677,364 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A4:L18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" customWidth="1"/>
+    <col min="5" max="5" width="37.109375" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="24.88671875" customWidth="1"/>
+    <col min="8" max="8" width="54.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" customWidth="1"/>
+    <col min="10" max="10" width="22.77734375" customWidth="1"/>
+    <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="G8" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="H8" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="I8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
       <c r="B9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D10" t="s">
-        <v>22</v>
+    </row>
+    <row r="10" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D11" t="s">
-        <v>23</v>
+        <v>88</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D12" t="s">
-        <v>26</v>
+        <v>89</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="G13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="H13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" ht="144" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" t="s">
+        <v>97</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I18" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K18" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="testcases for MyAccount section" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="143">
   <si>
     <t>Steps</t>
   </si>
@@ -1059,8 +1059,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:L12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1679,7 +1679,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A4:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
